--- a/number of war deaths.xlsx
+++ b/number of war deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\python\pojects\7_Price_Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A93D70-5CBC-4796-A2BF-5299E37EC5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC839B9-10FA-447B-88D4-FD6E373F2B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{6D57E637-D925-4BD2-A5C7-2ADED9E95DDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D57E637-D925-4BD2-A5C7-2ADED9E95DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162F1AC-37BA-43E2-B5C2-1456374B293C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +512,32 @@
         <v>49304</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <f>5828+484+31048+2605</f>
+        <v>39965</v>
+      </c>
+      <c r="C11">
+        <f>18811+1986+1911+1194+790+42223+22800+11114+9687+6283+3532+2358+1704+1584+1454+1399+B11</f>
+        <v>168795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <f>6254+6607+4181</f>
+        <v>17042</v>
+      </c>
+      <c r="C12">
+        <f>240400+105900+20206+7821+6422+6254+4793+4700+3847+3780+3000+2276+1731+1327+943+916+900+B12</f>
+        <v>432258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
